--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\acs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F2BDDF-3A86-475D-89F6-A22C7052D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97995151-773A-4ABD-B984-21563C05B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query1" sheetId="1" r:id="rId1"/>
@@ -1165,40 +1165,40 @@
   </sheetPr>
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="R13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="19.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="19.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.6640625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="AC1" s="11"/>
     </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>54</v>
       </c>
       <c r="Y4" s="10">
-        <v>42225</v>
+        <v>45878</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>55</v>
@@ -1539,7 +1539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>40</v>
       </c>
       <c r="Y5" s="10">
-        <v>41066</v>
+        <v>48371</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>41</v>
@@ -1625,7 +1625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>40</v>
       </c>
       <c r="Y6" s="10">
-        <v>41066</v>
+        <v>48371</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>41</v>
@@ -1711,7 +1711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>69</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>83</v>
       </c>
       <c r="Y7" s="10">
-        <v>40664</v>
+        <v>47969</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>41</v>
@@ -1797,7 +1797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>69</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>83</v>
       </c>
       <c r="Y8" s="10">
-        <v>40664</v>
+        <v>47969</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>55</v>
@@ -1883,7 +1883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>69</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>54</v>
       </c>
       <c r="Y9" s="10">
-        <v>40298</v>
+        <v>47603</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>41</v>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>85</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>54</v>
       </c>
       <c r="Y10" s="10">
-        <v>41518</v>
+        <v>48823</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>41</v>
@@ -2055,7 +2055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>85</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>54</v>
       </c>
       <c r="Y11" s="10">
-        <v>41518</v>
+        <v>48823</v>
       </c>
       <c r="Z11" s="11" t="s">
         <v>41</v>
@@ -2141,7 +2141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>85</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>54</v>
       </c>
       <c r="Y12" s="10">
-        <v>41518</v>
+        <v>48823</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>41</v>
@@ -2227,7 +2227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>100</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>54</v>
       </c>
       <c r="Y13" s="10">
-        <v>40298</v>
+        <v>47603</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>114</v>
@@ -2313,7 +2313,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>104</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>54</v>
       </c>
       <c r="Y14" s="10">
-        <v>42225</v>
+        <v>45878</v>
       </c>
       <c r="Z14" s="16">
         <v>61</v>
@@ -2399,7 +2399,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>100</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>184</v>
       </c>
       <c r="Y15" s="10">
-        <v>42258</v>
+        <v>45911</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>41</v>
@@ -2485,7 +2485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>117</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>54</v>
       </c>
       <c r="Y16" s="10">
-        <v>40617</v>
+        <v>44270</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>41</v>
@@ -2571,7 +2571,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>117</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>54</v>
       </c>
       <c r="Y17" s="10">
-        <v>42196</v>
+        <v>45849</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>41</v>
@@ -2657,7 +2657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>117</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>174</v>
       </c>
       <c r="Y18" s="10">
-        <v>42510</v>
+        <v>46162</v>
       </c>
       <c r="Z18" s="11" t="s">
         <v>55</v>
@@ -2743,7 +2743,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>117</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>54</v>
       </c>
       <c r="Y19" s="10">
-        <v>41518</v>
+        <v>48823</v>
       </c>
       <c r="Z19" s="11" t="s">
         <v>114</v>
@@ -2829,7 +2829,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>106</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>54</v>
       </c>
       <c r="Y20" s="10">
-        <v>40617</v>
+        <v>44270</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>41</v>
@@ -2915,7 +2915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>107</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>40</v>
       </c>
       <c r="Y21" s="10">
-        <v>41066</v>
+        <v>48371</v>
       </c>
       <c r="Z21" s="11" t="s">
         <v>55</v>
@@ -3001,7 +3001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>107</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>108</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>54</v>
       </c>
       <c r="Y23" s="10">
-        <v>42196</v>
+        <v>49501</v>
       </c>
       <c r="Z23" s="11" t="s">
         <v>55</v>
@@ -3171,7 +3171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>108</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>166</v>
       </c>
       <c r="Y24" s="10">
-        <v>43122</v>
+        <v>46774</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>114</v>
@@ -3257,7 +3257,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>109</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>54</v>
       </c>
       <c r="Y25" s="10">
-        <v>40298</v>
+        <v>47603</v>
       </c>
       <c r="Z25" s="11" t="s">
         <v>114</v>
@@ -3343,7 +3343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>109</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>174</v>
       </c>
       <c r="Y26" s="10">
-        <v>42510</v>
+        <v>46162</v>
       </c>
       <c r="Z26" s="11" t="s">
         <v>41</v>
@@ -3429,7 +3429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>110</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>166</v>
       </c>
       <c r="Y27" s="10">
-        <v>43122</v>
+        <v>46774</v>
       </c>
       <c r="Z27" s="11" t="s">
         <v>41</v>
@@ -3515,7 +3515,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>111</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>184</v>
       </c>
       <c r="Y28" s="10">
-        <v>42258</v>
+        <v>45911</v>
       </c>
       <c r="Z28" s="16">
         <v>61</v>
@@ -3601,7 +3601,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>111</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>54</v>
       </c>
       <c r="Y29" s="10">
-        <v>40617</v>
+        <v>47922</v>
       </c>
       <c r="Z29" s="11" t="s">
         <v>114</v>
